--- a/Practica_3/Pruebas.xlsx
+++ b/Practica_3/Pruebas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\EDAT\Practicas_Estructuras\Practica_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93517AB7-FEF5-4E60-8673-1096ED1980DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D4A93E-0C03-423F-896F-2D71902897F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0C7F6E1-7056-4E60-A746-7098AFC46100}"/>
   </bookViews>
@@ -144,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -160,12 +160,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -486,31 +480,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>934</c:v>
+                  <c:v>1451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,34 +594,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>438</c:v>
+                  <c:v>1423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1044</c:v>
+                  <c:v>872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>892</c:v>
+                  <c:v>926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1089</c:v>
+                  <c:v>5324</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2456</c:v>
+                  <c:v>2626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2674</c:v>
+                  <c:v>2839</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2681</c:v>
+                  <c:v>3243</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37659</c:v>
+                  <c:v>45621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1772,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A824FF81-A7F3-428F-9590-3F8EB4055A25}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1813,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1821,10 +1815,10 @@
         <v>1000</v>
       </c>
       <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
         <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1832,21 +1826,21 @@
         <v>1000000</v>
       </c>
       <c r="B5" s="3">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3">
-        <v>438</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>2000000</v>
       </c>
       <c r="B6" s="3">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3">
-        <v>1044</v>
+        <v>872</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1854,10 +1848,10 @@
         <v>2500000</v>
       </c>
       <c r="B7" s="4">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4">
-        <v>892</v>
+        <v>926</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1865,54 +1859,54 @@
         <v>5000000</v>
       </c>
       <c r="B8" s="3">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="C8" s="3">
-        <v>1089</v>
+        <v>5324</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>6000000</v>
       </c>
       <c r="B9" s="4">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4">
-        <v>2456</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="4">
         <v>6500000</v>
       </c>
       <c r="B10" s="4">
         <v>91</v>
       </c>
       <c r="C10" s="4">
-        <v>2674</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="4">
         <v>7000000</v>
       </c>
       <c r="B11" s="4">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C11" s="4">
-        <v>2681</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>75000000</v>
       </c>
-      <c r="B12" s="10">
-        <v>934</v>
-      </c>
-      <c r="C12" s="11">
-        <v>37659</v>
+      <c r="B12" s="8">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="9">
+        <v>45621</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">

--- a/Practica_3/Pruebas.xlsx
+++ b/Practica_3/Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\EDAT\Practicas_Estructuras\Practica_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D4A93E-0C03-423F-896F-2D71902897F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB73E46-B989-4196-B7F7-422D933AEAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0C7F6E1-7056-4E60-A746-7098AFC46100}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,18 +73,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF8CAFD2"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFEBEBEB"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -95,6 +83,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -140,16 +134,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -158,16 +158,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,10 +441,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$12</c:f>
+              <c:f>Hoja1!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -463,16 +477,31 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>75000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$12</c:f>
+              <c:f>Hoja1!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -505,6 +534,21 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1387</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3797</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -544,10 +588,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$12</c:f>
+              <c:f>Hoja1!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -580,16 +624,31 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>75000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$12</c:f>
+              <c:f>Hoja1!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -622,6 +681,21 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47829</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>124398</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>186616</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1433,8 +1507,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51D99A94-49AF-42E8-9271-A42ACF218C57}" name="Tabla1" displayName="Tabla1" ref="A1:C12" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:C12" xr:uid="{51D99A94-49AF-42E8-9271-A42ACF218C57}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51D99A94-49AF-42E8-9271-A42ACF218C57}" name="Tabla1" displayName="Tabla1" ref="A1:C18" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:C18" xr:uid="{51D99A94-49AF-42E8-9271-A42ACF218C57}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
     <sortCondition ref="A1:A12"/>
   </sortState>
@@ -1764,10 +1838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A824FF81-A7F3-428F-9590-3F8EB4055A25}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1789,136 +1863,197 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>100</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>1000</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>1000000</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>60</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1423</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>2000000</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>39</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>872</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>2500000</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>24</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>926</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>5000000</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>203</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>5324</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>6000000</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>83</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>2626</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>6500000</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>91</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>2839</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>7000000</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>103</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>3243</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>75000000</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>1451</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <v>45621</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="4">
+        <v>80000000</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1202</v>
+      </c>
+      <c r="C13" s="7">
+        <v>47829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>85000000</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1387</v>
+      </c>
+      <c r="C14" s="7">
+        <v>51274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>90000000</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1388</v>
+      </c>
+      <c r="C15" s="8">
+        <v>124398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>95000000</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3797</v>
+      </c>
+      <c r="C16" s="8">
+        <v>186616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>100000000</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1550</v>
+      </c>
+      <c r="C17" s="10">
+        <v>63375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>